--- a/21 - Basics of Data Analytics - Fudamentals/Assignment/Assignment4.xlsx
+++ b/21 - Basics of Data Analytics - Fudamentals/Assignment/Assignment4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\NPTEL - IISc &amp; IIT\IISc Proficience\21 - Basics of Data Analytics - Fudamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\NPTEL - IISc &amp; IIT\IISc Proficience\21 - Basics of Data Analytics - Fudamentals\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Height (cm)</t>
   </si>
@@ -301,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -565,11 +565,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -662,6 +686,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +735,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$4</c:f>
+              <c:f>Sheet1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -753,7 +784,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$21</c:f>
+              <c:f>Sheet1!$R$5:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -813,7 +844,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$21</c:f>
+              <c:f>Sheet1!$S$5:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1226,7 +1257,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$4</c:f>
+              <c:f>Sheet1!$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1257,9 +1288,23 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$16</c:f>
+              <c:f>Sheet1!$Y$5:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1304,7 +1349,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$5:$X$16</c:f>
+              <c:f>Sheet1!$Z$5:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1646,6 +1691,472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight loss in Kg (y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$5:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D16-4E49-95D9-855640E771D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="741396288"/>
+        <c:axId val="741392544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="741396288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours spent in Gym (x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741392544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="741392544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight loss in kgs (y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741396288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1726,6 +2237,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2758,11 +3309,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
@@ -2898,7 +3965,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -3034,16 +4101,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3064,16 +4131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3087,6 +4154,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3358,42 +4455,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC23"/>
+  <dimension ref="A2:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -3412,50 +4512,56 @@
       <c r="G4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="W4" s="3" t="s">
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+      <c r="Y4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="AB4" s="35" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AD4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AE4" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3478,60 +4584,68 @@
         <f>F5*F5</f>
         <v>306.25</v>
       </c>
-      <c r="I5" s="11">
+      <c r="H5" s="45">
+        <f>D5-E12</f>
+        <v>-18.735294117647072</v>
+      </c>
+      <c r="I5" s="45">
+        <f>H5*H5</f>
+        <v>351.01124567474096</v>
+      </c>
+      <c r="K5" s="11">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>24</v>
       </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
+      <c r="M5" s="1">
+        <f>K5*L5</f>
         <v>168</v>
       </c>
-      <c r="L5" s="1">
-        <f>I5*I5</f>
+      <c r="N5" s="1">
+        <f>K5*K5</f>
         <v>49</v>
       </c>
-      <c r="M5" s="12">
-        <f>J5*J5</f>
+      <c r="O5" s="12">
+        <f>L5*L5</f>
         <v>576</v>
       </c>
-      <c r="O5" s="11">
+      <c r="Q5" s="11">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>19</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>14.94</v>
       </c>
-      <c r="R5" s="1">
-        <f t="shared" ref="R5:R21" si="0">P5*Q5</f>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T21" si="0">R5*S5</f>
         <v>283.86</v>
       </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:S21" si="1">P5^2</f>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5:U21" si="1">R5^2</f>
         <v>361</v>
       </c>
-      <c r="T5" s="12">
-        <f t="shared" ref="T5:T21" si="2">Q5^2</f>
+      <c r="V5" s="12">
+        <f t="shared" ref="V5:V21" si="2">S5^2</f>
         <v>223.20359999999999</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>14.2</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="2">
         <v>215</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="AB5" s="37">
+      <c r="AA5" s="6"/>
+      <c r="AD5" s="37">
         <v>100</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AE5" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
@@ -3551,63 +4665,71 @@
         <v>-10.5</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:G10" si="4">F6*F6</f>
+        <f>F6*F6</f>
         <v>110.25</v>
       </c>
-      <c r="I6" s="11">
+      <c r="H6" s="45">
+        <f>D6-E12</f>
+        <v>-11.735294117647072</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" ref="I6:I10" si="4">H6*H6</f>
+        <v>137.71712802768198</v>
+      </c>
+      <c r="K6" s="11">
         <v>14</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>34</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K10" si="5">I6*J6</f>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M10" si="5">K6*L6</f>
         <v>476</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" ref="L6:L10" si="6">I6*I6</f>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N10" si="6">K6*K6</f>
         <v>196</v>
       </c>
-      <c r="M6" s="12">
-        <f t="shared" ref="M6:M10" si="7">J6*J6</f>
+      <c r="O6" s="12">
+        <f t="shared" ref="O6:O10" si="7">L6*L6</f>
         <v>1156</v>
       </c>
-      <c r="O6" s="11">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>19</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>14.8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
         <v>281.2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="T6" s="12">
+      <c r="V6" s="12">
         <f t="shared" si="2"/>
         <v>219.04000000000002</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Z6" s="2">
         <v>325</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="AB6" s="37">
+      <c r="AA6" s="6"/>
+      <c r="AD6" s="37">
         <v>75</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AE6" s="38">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
@@ -3627,63 +4749,71 @@
         <v>-3.5</v>
       </c>
       <c r="G7" s="12">
+        <f>F7*F7</f>
+        <v>12.25</v>
+      </c>
+      <c r="H7" s="45">
+        <f>D7-E12</f>
+        <v>-4.7352941176470722</v>
+      </c>
+      <c r="I7" s="45">
         <f t="shared" si="4"/>
-        <v>12.25</v>
-      </c>
-      <c r="I7" s="11">
+        <v>22.423010380622966</v>
+      </c>
+      <c r="K7" s="11">
         <v>24</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>45</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="5"/>
         <v>1080</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="6"/>
         <v>576</v>
       </c>
-      <c r="M7" s="12">
+      <c r="O7" s="12">
         <f t="shared" si="7"/>
         <v>2025</v>
       </c>
-      <c r="O7" s="11">
+      <c r="Q7" s="11">
         <v>3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>20</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>24.76</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="0"/>
         <v>495.20000000000005</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T7" s="12">
+      <c r="V7" s="12">
         <f t="shared" si="2"/>
         <v>613.05760000000009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>11.9</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>185</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="AB7" s="37">
+      <c r="AA7" s="6"/>
+      <c r="AD7" s="37">
         <v>80</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AE7" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
@@ -3703,63 +4833,71 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="12">
+        <f>F8*F8</f>
+        <v>12.25</v>
+      </c>
+      <c r="H8" s="45">
+        <f>D8-E12</f>
+        <v>2.2647058823529278</v>
+      </c>
+      <c r="I8" s="45">
         <f t="shared" si="4"/>
-        <v>12.25</v>
-      </c>
-      <c r="I8" s="11">
+        <v>5.1288927335639531</v>
+      </c>
+      <c r="K8" s="11">
         <v>30</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>50</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="M8" s="12">
+      <c r="O8" s="12">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="O8" s="11">
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>20</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>14.93</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <f t="shared" si="0"/>
         <v>298.60000000000002</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T8" s="12">
+      <c r="V8" s="12">
         <f t="shared" si="2"/>
         <v>222.9049</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Y8" s="2">
         <v>15.2</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Z8" s="2">
         <v>332</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="AB8" s="37">
+      <c r="AA8" s="6"/>
+      <c r="AD8" s="37">
         <v>90</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AE8" s="38">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
@@ -3779,63 +4917,71 @@
         <v>10.5</v>
       </c>
       <c r="G9" s="12">
+        <f>F9*F9</f>
+        <v>110.25</v>
+      </c>
+      <c r="H9" s="45">
+        <f>D9-E12</f>
+        <v>9.2647058823529278</v>
+      </c>
+      <c r="I9" s="45">
         <f t="shared" si="4"/>
-        <v>110.25</v>
-      </c>
-      <c r="I9" s="11">
+        <v>85.834775086504948</v>
+      </c>
+      <c r="K9" s="11">
         <v>45</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>61</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="5"/>
         <v>2745</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="6"/>
         <v>2025</v>
       </c>
-      <c r="M9" s="12">
+      <c r="O9" s="12">
         <f t="shared" si="7"/>
         <v>3721</v>
       </c>
-      <c r="O9" s="11">
+      <c r="Q9" s="11">
         <v>5</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>20</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>13.95</v>
       </c>
-      <c r="R9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T9" s="12">
+      <c r="V9" s="12">
         <f t="shared" si="2"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <v>18.5</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Z9" s="2">
         <v>406</v>
       </c>
-      <c r="Y9" s="6"/>
-      <c r="AB9" s="37">
+      <c r="AA9" s="6"/>
+      <c r="AD9" s="37">
         <v>60</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AE9" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
@@ -3855,63 +5001,71 @@
         <v>17.5</v>
       </c>
       <c r="G10" s="12">
+        <f>F10*F10</f>
+        <v>306.25</v>
+      </c>
+      <c r="H10" s="45">
+        <f>D10-E12</f>
+        <v>16.264705882352928</v>
+      </c>
+      <c r="I10" s="45">
         <f t="shared" si="4"/>
-        <v>306.25</v>
-      </c>
-      <c r="I10" s="11">
+        <v>264.54065743944591</v>
+      </c>
+      <c r="K10" s="11">
         <v>57</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>69</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="5"/>
         <v>3933</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="6"/>
         <v>3249</v>
       </c>
-      <c r="M10" s="12">
+      <c r="O10" s="12">
         <f t="shared" si="7"/>
         <v>4761</v>
       </c>
-      <c r="O10" s="11">
+      <c r="Q10" s="11">
         <v>6</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>21</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>17.88</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="0"/>
         <v>375.47999999999996</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="T10" s="12">
+      <c r="V10" s="12">
         <f t="shared" si="2"/>
         <v>319.69439999999997</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Y10" s="2">
         <v>22.1</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Z10" s="2">
         <v>522</v>
       </c>
-      <c r="Y10" s="6"/>
-      <c r="AB10" s="37">
+      <c r="AA10" s="6"/>
+      <c r="AD10" s="37">
         <v>50</v>
       </c>
-      <c r="AC10" s="38">
+      <c r="AE10" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
@@ -3933,536 +5087,549 @@
         <f>SUM(G5:G10)</f>
         <v>857.5</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="46">
+        <f>SUM(I5:I10)</f>
+        <v>866.65570934256061</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="13">
-        <f>SUM(I5:I10)</f>
+      <c r="K11" s="13">
+        <f>SUM(K5:K10)</f>
         <v>177</v>
       </c>
-      <c r="J11" s="14">
-        <f>SUM(J5:J10)</f>
+      <c r="L11" s="14">
+        <f>SUM(L5:L10)</f>
         <v>283</v>
       </c>
-      <c r="K11" s="14">
-        <f t="shared" ref="K11:M11" si="8">SUM(K5:K10)</f>
+      <c r="M11" s="14">
+        <f t="shared" ref="M11:O11" si="8">SUM(M5:M10)</f>
         <v>9902</v>
       </c>
-      <c r="L11" s="14">
+      <c r="N11" s="14">
         <f t="shared" si="8"/>
         <v>6995</v>
       </c>
-      <c r="M11" s="15">
+      <c r="O11" s="15">
         <f t="shared" si="8"/>
         <v>14739</v>
       </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="11">
         <v>7</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>21</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>11.65</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="0"/>
         <v>244.65</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="T11" s="12">
+      <c r="V11" s="12">
         <f t="shared" si="2"/>
         <v>135.7225</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Y11" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Z11" s="2">
         <v>412</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="AB11" s="37">
+      <c r="AA11" s="6"/>
+      <c r="AD11" s="37">
         <v>25</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AE11" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="44">
+        <f>E11/C11</f>
+        <v>171.73529411764707</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="34">
-        <f>COUNT(I5:I10)</f>
+      <c r="K12" s="34">
+        <f>COUNT(K5:K10)</f>
         <v>6</v>
       </c>
-      <c r="J12" s="34">
-        <f>COUNT(J5:J10)</f>
+      <c r="L12" s="34">
+        <f>COUNT(L5:L10)</f>
         <v>6</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
       <c r="M12" s="32"/>
-      <c r="O12" s="11">
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="Q12" s="11">
         <v>8</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>22</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="R12" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="0"/>
         <v>393.79999999999995</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="T12" s="12">
+      <c r="V12" s="12">
         <f t="shared" si="2"/>
         <v>320.40999999999997</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Y12" s="2">
         <v>25.1</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Z12" s="2">
         <v>614</v>
       </c>
-      <c r="Y12" s="6"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="6"/>
+      <c r="AD12" s="37">
         <v>40</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AE12" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>D11/COUNT(D5:D10)</f>
         <v>170.5</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="7">
-        <f>AVERAGE(I5:I10)</f>
+      <c r="K13" s="7">
+        <f>AVERAGE(K5:K10)</f>
         <v>29.5</v>
       </c>
-      <c r="J13" s="7">
-        <f>AVERAGE(J5:J10)</f>
+      <c r="L13" s="7">
+        <f>AVERAGE(L5:L10)</f>
         <v>47.166666666666664</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
       <c r="M13" s="32"/>
-      <c r="O13" s="11">
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="Q13" s="11">
         <v>9</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>23</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>21.5</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="0"/>
         <v>494.5</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="T13" s="12">
+      <c r="V13" s="12">
         <f t="shared" si="2"/>
         <v>462.25</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <v>23.4</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Z13" s="2">
         <v>544</v>
       </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" s="39">
-        <f>SUM(AB5:AB12)</f>
+      <c r="AD13" s="39">
+        <f>SUM(AD5:AD12)</f>
         <v>520</v>
       </c>
-      <c r="AC13" s="40">
-        <f>SUM(AC5:AC12)</f>
+      <c r="AE13" s="40">
+        <f>SUM(AE5:AE12)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H14" s="7" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>1023/6</f>
+        <v>170.5</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7">
-        <f>MEDIAN(I5:I10)</f>
+      <c r="K14" s="7">
+        <f>MEDIAN(K5:K10)</f>
         <v>27</v>
       </c>
-      <c r="J14" s="7">
-        <f>MEDIAN(J5:J10)</f>
+      <c r="L14" s="7">
+        <f>MEDIAN(L5:L10)</f>
         <v>47.5</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
       <c r="M14" s="32"/>
-      <c r="O14" s="11">
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="Q14" s="11">
         <v>10</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>24</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>13.25</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="T14" s="12">
+      <c r="V14" s="12">
         <f t="shared" si="2"/>
         <v>175.5625</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Y14" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Z14" s="2">
         <v>421</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="42" t="s">
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB14" s="39">
-        <f>AVERAGE(AB5:AB12)</f>
+      <c r="AD14" s="39">
+        <f>AVERAGE(AD5:AD12)</f>
         <v>65</v>
       </c>
-      <c r="AC14" s="40">
-        <f>AVERAGE(AC5:AC12)</f>
+      <c r="AE14" s="40">
+        <f>AVERAGE(AE5:AE12)</f>
         <v>9.875</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H15" s="7" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="7" t="e">
-        <f>_xlfn.MODE.MULT(I5:I10)</f>
+      <c r="K15" s="7" t="e">
+        <f>_xlfn.MODE.MULT(K5:K10)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="7" t="e">
-        <f>_xlfn.MODE.SNGL(J5:J10)</f>
+      <c r="L15" s="7" t="e">
+        <f>_xlfn.MODE.SNGL(L5:L10)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
       <c r="M15" s="32"/>
-      <c r="O15" s="11">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="Q15" s="11">
         <v>11</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>25</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>9.6</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="T15" s="12">
+      <c r="V15" s="12">
         <f t="shared" si="2"/>
         <v>92.16</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Y15" s="2">
         <v>22.6</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Z15" s="2">
         <v>445</v>
       </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="42" t="s">
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="39">
-        <f>MEDIAN(AB5:AB12)</f>
+      <c r="AD15" s="39">
+        <f>MEDIAN(AD5:AD12)</f>
         <v>67.5</v>
       </c>
-      <c r="AC15" s="40">
-        <f>MEDIAN(AC5:AC12)</f>
+      <c r="AE15" s="40">
+        <f>MEDIAN(AE5:AE12)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O16" s="11">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="11">
         <v>12</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>17</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>13.95</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="0"/>
         <v>237.14999999999998</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="T16" s="12">
+      <c r="V16" s="12">
         <f t="shared" si="2"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Y16" s="2">
         <v>17.2</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Z16" s="2">
         <v>408</v>
       </c>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="43" t="s">
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AB16" s="13" t="e">
-        <f>_xlfn.MODE.MULT(AB5:AB12)</f>
+      <c r="AD16" s="13" t="e">
+        <f>_xlfn.MODE.MULT(AD5:AD12)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC16" s="15">
-        <f>_xlfn.MODE.MULT(AC5:AC12)</f>
+      <c r="AE16" s="15">
+        <f>_xlfn.MODE.MULT(AE5:AE12)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O17" s="11">
+    <row r="17" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q17" s="11">
         <v>13</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>28</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>13.07</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="0"/>
         <v>365.96000000000004</v>
       </c>
-      <c r="S17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-      <c r="T17" s="12">
+      <c r="V17" s="12">
         <f t="shared" si="2"/>
         <v>170.82490000000001</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="X17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="W17" s="7">
-        <f>SUM(W5:W16)</f>
+      <c r="Y17" s="7">
+        <f>SUM(Y5:Y16)</f>
         <v>224.1</v>
       </c>
-      <c r="X17" s="7">
-        <f>SUM(X5:X16)</f>
+      <c r="Z17" s="7">
+        <f>SUM(Z5:Z16)</f>
         <v>4829</v>
       </c>
     </row>
-    <row r="18" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O18" s="11">
+    <row r="18" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q18" s="11">
         <v>14</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>32</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>6.6</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <f t="shared" si="0"/>
         <v>211.2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="U18" s="1">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="T18" s="12">
+      <c r="V18" s="12">
         <f t="shared" si="2"/>
         <v>43.559999999999995</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="X18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W18" s="7">
-        <f>AVERAGE(W5:W16)</f>
+      <c r="Y18" s="7">
+        <f>AVERAGE(Y5:Y16)</f>
         <v>18.675000000000001</v>
       </c>
-      <c r="X18" s="7">
-        <f>AVERAGE(X5:X16)</f>
+      <c r="Z18" s="7">
+        <f>AVERAGE(Z5:Z16)</f>
         <v>402.41666666666669</v>
       </c>
     </row>
-    <row r="19" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O19" s="11">
+    <row r="19" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q19" s="11">
         <v>15</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>33</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>9.41</v>
       </c>
-      <c r="R19" s="1">
+      <c r="T19" s="1">
         <f t="shared" si="0"/>
         <v>310.53000000000003</v>
       </c>
-      <c r="S19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
-      <c r="T19" s="12">
+      <c r="V19" s="12">
         <f t="shared" si="2"/>
         <v>88.548100000000005</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="X19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="7">
-        <f>MEDIAN(W5:W16)</f>
+      <c r="Y19" s="7">
+        <f>MEDIAN(Y5:Y16)</f>
         <v>18.3</v>
       </c>
-      <c r="X19" s="7">
-        <f>MEDIAN(X5:X16)</f>
+      <c r="Z19" s="7">
+        <f>MEDIAN(Z5:Z16)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O20" s="11">
+    <row r="20" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q20" s="11">
         <v>16</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>34</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>5.87</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <f t="shared" si="0"/>
         <v>199.58</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <f t="shared" si="1"/>
         <v>1156</v>
       </c>
-      <c r="T20" s="12">
+      <c r="V20" s="12">
         <f t="shared" si="2"/>
         <v>34.456900000000005</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="X20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W20" s="7" t="e">
-        <f>_xlfn.MODE.MULT(W5:W16)</f>
+      <c r="Y20" s="7" t="e">
+        <f>_xlfn.MODE.MULT(Y5:Y16)</f>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="7" t="e">
-        <f>_xlfn.MODE.MULT(X5:X16)</f>
+      <c r="Z20" s="7" t="e">
+        <f>_xlfn.MODE.MULT(Z5:Z16)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="16">
+    <row r="21" spans="17:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="16">
         <v>17</v>
       </c>
-      <c r="P21" s="4">
+      <c r="R21" s="4">
         <v>35</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <v>6.49</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="0"/>
         <v>227.15</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
-      <c r="T21" s="17">
+      <c r="V21" s="17">
         <f t="shared" si="2"/>
         <v>42.120100000000001</v>
       </c>
     </row>
-    <row r="22" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O22" s="18" t="s">
+    <row r="22" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q22" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="P22" s="19">
-        <f>SUM(P5:P21)</f>
-        <v>413</v>
-      </c>
-      <c r="Q22" s="19">
-        <f>SUM(Q5:Q21)</f>
-        <v>230.54999999999998</v>
       </c>
       <c r="R22" s="19">
         <f>SUM(R5:R21)</f>
-        <v>5255.8599999999988</v>
+        <v>413</v>
       </c>
       <c r="S22" s="19">
         <f>SUM(S5:S21)</f>
+        <v>230.54999999999998</v>
+      </c>
+      <c r="T22" s="19">
+        <f>SUM(T5:T21)</f>
+        <v>5255.8599999999988</v>
+      </c>
+      <c r="U22" s="19">
+        <f>SUM(U5:U21)</f>
         <v>10585</v>
       </c>
-      <c r="T22" s="20">
-        <f t="shared" ref="T22" si="9">SUM(T5:T21)</f>
+      <c r="V22" s="20">
+        <f t="shared" ref="V22" si="9">SUM(V5:V21)</f>
         <v>3552.7205000000004</v>
       </c>
     </row>
-    <row r="23" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O23" s="13" t="s">
+    <row r="23" spans="17:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="14">
-        <f>AVERAGE(P5:P21)</f>
+      <c r="R23" s="14">
+        <f>AVERAGE(R5:R21)</f>
         <v>24.294117647058822</v>
       </c>
-      <c r="Q23" s="14">
-        <f t="shared" ref="Q23:T23" si="10">AVERAGE(Q5:Q21)</f>
+      <c r="S23" s="14">
+        <f t="shared" ref="S23:V23" si="10">AVERAGE(S5:S21)</f>
         <v>13.561764705882352</v>
       </c>
-      <c r="R23" s="14">
+      <c r="T23" s="14">
         <f t="shared" si="10"/>
         <v>309.16823529411755</v>
       </c>
-      <c r="S23" s="14">
+      <c r="U23" s="14">
         <f t="shared" si="10"/>
         <v>622.64705882352939</v>
       </c>
-      <c r="T23" s="15">
+      <c r="V23" s="15">
         <f t="shared" si="10"/>
         <v>208.98355882352942</v>
       </c>

--- a/21 - Basics of Data Analytics - Fudamentals/Assignment/Assignment4.xlsx
+++ b/21 - Basics of Data Analytics - Fudamentals/Assignment/Assignment4.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Height (cm)</t>
   </si>
@@ -206,12 +207,63 @@
   <si>
     <t>Weight loss in Kg (y)</t>
   </si>
+  <si>
+    <r>
+      <t>f*x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>x-</t>
+  </si>
+  <si>
+    <r>
+      <t>(x-   )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(y-   )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>(y-   )</t>
+  </si>
+  <si>
+    <t>riting Test Cases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +320,12 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -301,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -325,19 +383,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -453,45 +498,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -521,51 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -577,7 +538,113 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -604,95 +671,101 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,17 +806,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price (y)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -784,126 +846,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$5:$R$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$5:$S$21</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3DAF-494D-B251-A2506B7C097F}"/>
             </c:ext>
@@ -1257,7 +1237,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$4</c:f>
+              <c:f>Sheet1!$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +1284,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$5:$Y$16</c:f>
+              <c:f>Sheet1!$AC$5:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1349,7 +1329,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$5:$Z$16</c:f>
+              <c:f>Sheet1!$AD$5:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1747,7 +1727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$4</c:f>
+              <c:f>Sheet1!$AK$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1794,7 +1774,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$12</c:f>
+              <c:f>Sheet1!$AJ$5:$AJ$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1827,7 +1807,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$5:$AE$12</c:f>
+              <c:f>Sheet1!$AK$5:$AK$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3827,25 +3807,115 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="180114" cy="175369"/>
+    <xdr:ext cx="111248" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8905875" y="914400"/>
-              <a:ext cx="180114" cy="175369"/>
+              <a:off x="8562975" y="895350"/>
+              <a:ext cx="111248" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3879,14 +3949,15 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSup>
-                      <m:sSupPr>
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:sSupPr>
+                      </m:barPr>
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -3895,15 +3966,7 @@
                           <m:t>𝑥</m:t>
                         </m:r>
                       </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
+                    </m:bar>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -3915,13 +3978,13 @@
       <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8905875" y="914400"/>
-              <a:ext cx="180114" cy="175369"/>
+              <a:off x="8562975" y="895350"/>
+              <a:ext cx="111248" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3948,12 +4011,17 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥^2</a:t>
+                <a:t>𝑥</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3965,23 +4033,23 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="183127" cy="175369"/>
+    <xdr:ext cx="111248" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9782175" y="866775"/>
-              <a:ext cx="183127" cy="175369"/>
+              <a:off x="8562975" y="895350"/>
+              <a:ext cx="111248" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4015,31 +4083,24 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSup>
-                      <m:sSupPr>
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:sSupPr>
+                      </m:barPr>
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝑦</m:t>
+                          <m:t>𝑥</m:t>
                         </m:r>
                       </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
+                    </m:bar>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -4051,13 +4112,78 @@
       <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9782175" y="866775"/>
-              <a:ext cx="183127" cy="175369"/>
+              <a:off x="8562975" y="895350"/>
+              <a:ext cx="111248" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="113236" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="885825"/>
+              <a:ext cx="113236" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4085,11 +4211,85 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="885825"/>
+              <a:ext cx="113236" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑦^2</a:t>
+                <a:t>𝑦</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4099,96 +4299,140 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:ext cx="113236" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="885825"/>
+              <a:ext cx="113236" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="885825"/>
+              <a:ext cx="113236" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4455,114 +4699,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE23"/>
+  <dimension ref="A2:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4:AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AJ2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="S4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="U4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="V4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="W4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="X4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AD4" s="35" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AK4" s="44" t="s">
         <v>35</v>
       </c>
+      <c r="AL4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -4577,76 +4854,111 @@
         <v>306</v>
       </c>
       <c r="F5" s="1">
-        <f>D5-D13</f>
-        <v>-17.5</v>
-      </c>
-      <c r="G5" s="12">
-        <f>F5*F5</f>
-        <v>306.25</v>
-      </c>
-      <c r="H5" s="45">
+        <f>D5*E5</f>
+        <v>46818</v>
+      </c>
+      <c r="G5" s="1">
         <f>D5-E12</f>
         <v>-18.735294117647072</v>
       </c>
-      <c r="I5" s="45">
-        <f>H5*H5</f>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H10" si="0">G5*G5</f>
         <v>351.01124567474096</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>7</v>
       </c>
       <c r="L5" s="1">
         <v>24</v>
       </c>
       <c r="M5" s="1">
-        <f>K5*L5</f>
+        <f>K5-K13</f>
+        <v>-22.5</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5*M5</f>
+        <v>506.25</v>
+      </c>
+      <c r="O5" s="1">
+        <f>L5-L13</f>
+        <v>-23.166666666666664</v>
+      </c>
+      <c r="P5" s="1">
+        <f>O5*O5</f>
+        <v>536.69444444444434</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q10" si="1">K5*L5</f>
         <v>168</v>
       </c>
-      <c r="N5" s="1">
-        <f>K5*K5</f>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:S10" si="2">K5*K5</f>
         <v>49</v>
       </c>
-      <c r="O5" s="12">
-        <f>L5*L5</f>
+      <c r="S5" s="9">
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="U5" s="8">
         <v>1</v>
       </c>
-      <c r="R5" s="1">
+      <c r="V5" s="1">
         <v>19</v>
       </c>
-      <c r="S5" s="1">
+      <c r="W5" s="1">
         <v>14.94</v>
       </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5:T21" si="0">R5*S5</f>
+      <c r="X5" s="1">
+        <f t="shared" ref="X5:X21" si="3">V5*W5</f>
         <v>283.86</v>
       </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:U21" si="1">R5^2</f>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Y21" si="4">V5^2</f>
         <v>361</v>
       </c>
-      <c r="V5" s="12">
-        <f t="shared" ref="V5:V21" si="2">S5^2</f>
+      <c r="Z5" s="9">
+        <f t="shared" ref="Z5:Z21" si="5">W5^2</f>
         <v>223.20359999999999</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AC5" s="2">
         <v>14.2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AD5" s="2">
         <v>215</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AD5" s="37">
+      <c r="AE5" s="2">
+        <f>AC5*AD5</f>
+        <v>3053</v>
+      </c>
+      <c r="AF5" s="2">
+        <f>AC5*AC5</f>
+        <v>201.64</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>AD5*AD5</f>
+        <v>46225</v>
+      </c>
+      <c r="AJ5" s="45">
         <v>100</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AK5" s="45">
         <v>15</v>
       </c>
+      <c r="AL5" s="46">
+        <f>AJ5*AK5</f>
+        <v>1500</v>
+      </c>
+      <c r="AM5" s="46">
+        <f>AJ5*AJ5</f>
+        <v>10000</v>
+      </c>
+      <c r="AN5" s="46">
+        <f>AK5*AK5</f>
+        <v>225</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -4657,80 +4969,115 @@
         <v>160</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E10" si="3">C6*D6</f>
+        <f t="shared" ref="E6:E10" si="6">C6*D6</f>
         <v>2240</v>
       </c>
       <c r="F6" s="1">
-        <f>D6-D13</f>
-        <v>-10.5</v>
-      </c>
-      <c r="G6" s="12">
-        <f>F6*F6</f>
-        <v>110.25</v>
-      </c>
-      <c r="H6" s="45">
+        <f t="shared" ref="F6:F10" si="7">D6*E6</f>
+        <v>358400</v>
+      </c>
+      <c r="G6" s="1">
         <f>D6-E12</f>
         <v>-11.735294117647072</v>
       </c>
-      <c r="I6" s="45">
-        <f t="shared" ref="I6:I10" si="4">H6*H6</f>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
         <v>137.71712802768198</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>14</v>
       </c>
       <c r="L6" s="1">
         <v>34</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6:M10" si="5">K6*L6</f>
+        <f>K6-K13</f>
+        <v>-15.5</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N10" si="8">M6*M6</f>
+        <v>240.25</v>
+      </c>
+      <c r="O6" s="1">
+        <f>L6-L13</f>
+        <v>-13.166666666666664</v>
+      </c>
+      <c r="P6" s="1">
+        <f>O6*O6</f>
+        <v>173.36111111111106</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6:N10" si="6">K6*K6</f>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="O6" s="12">
-        <f t="shared" ref="O6:O10" si="7">L6*L6</f>
+      <c r="S6" s="9">
+        <f t="shared" si="2"/>
         <v>1156</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="U6" s="8">
         <v>2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="V6" s="1">
         <v>19</v>
       </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
         <v>14.8</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
+      <c r="X6" s="1">
+        <f t="shared" si="3"/>
         <v>281.2</v>
       </c>
-      <c r="U6" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y6" s="1">
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
-      <c r="V6" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z6" s="9">
+        <f t="shared" si="5"/>
         <v>219.04000000000002</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AC6" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AD6" s="2">
         <v>325</v>
       </c>
-      <c r="AA6" s="6"/>
-      <c r="AD6" s="37">
+      <c r="AE6" s="2">
+        <f t="shared" ref="AE6:AE16" si="9">AC6*AD6</f>
+        <v>5329.9999999999991</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" ref="AF6:AF16" si="10">AC6*AC6</f>
+        <v>268.95999999999998</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" ref="AG6:AG16" si="11">AD6*AD6</f>
+        <v>105625</v>
+      </c>
+      <c r="AJ6" s="45">
         <v>75</v>
       </c>
-      <c r="AE6" s="38">
+      <c r="AK6" s="45">
         <v>11</v>
       </c>
+      <c r="AL6" s="46">
+        <f t="shared" ref="AL6:AL12" si="12">AJ6*AK6</f>
+        <v>825</v>
+      </c>
+      <c r="AM6" s="46">
+        <f t="shared" ref="AM6:AM12" si="13">AJ6*AJ6</f>
+        <v>5625</v>
+      </c>
+      <c r="AN6" s="46">
+        <f t="shared" ref="AN6:AN12" si="14">AK6*AK6</f>
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -4741,80 +5088,115 @@
         <v>167</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2505</v>
       </c>
       <c r="F7" s="1">
-        <f>D7-D13</f>
-        <v>-3.5</v>
-      </c>
-      <c r="G7" s="12">
-        <f>F7*F7</f>
-        <v>12.25</v>
-      </c>
-      <c r="H7" s="45">
+        <f t="shared" si="7"/>
+        <v>418335</v>
+      </c>
+      <c r="G7" s="1">
         <f>D7-E12</f>
         <v>-4.7352941176470722</v>
       </c>
-      <c r="I7" s="45">
-        <f t="shared" si="4"/>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
         <v>22.423010380622966</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>24</v>
       </c>
       <c r="L7" s="1">
         <v>45</v>
       </c>
       <c r="M7" s="1">
+        <f>K7-K13</f>
+        <v>-5.5</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>30.25</v>
+      </c>
+      <c r="O7" s="1">
+        <f>L7-L13</f>
+        <v>-2.1666666666666643</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7:P10" si="15">O7*O7</f>
+        <v>4.694444444444434</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="U7" s="8">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>20</v>
+      </c>
+      <c r="W7" s="1">
+        <v>24.76</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="3"/>
+        <v>495.20000000000005</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="Z7" s="9">
         <f t="shared" si="5"/>
-        <v>1080</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="6"/>
-        <v>576</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="7"/>
-        <v>2025</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1">
-        <v>20</v>
-      </c>
-      <c r="S7" s="1">
-        <v>24.76</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>495.20000000000005</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="V7" s="12">
-        <f t="shared" si="2"/>
         <v>613.05760000000009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AC7" s="2">
         <v>11.9</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AD7" s="2">
         <v>185</v>
       </c>
-      <c r="AA7" s="6"/>
-      <c r="AD7" s="37">
+      <c r="AE7" s="2">
+        <f t="shared" si="9"/>
+        <v>2201.5</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="10"/>
+        <v>141.61000000000001</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" si="11"/>
+        <v>34225</v>
+      </c>
+      <c r="AJ7" s="45">
         <v>80</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AK7" s="45">
         <v>15</v>
       </c>
+      <c r="AL7" s="46">
+        <f t="shared" si="12"/>
+        <v>1200</v>
+      </c>
+      <c r="AM7" s="46">
+        <f t="shared" si="13"/>
+        <v>6400</v>
+      </c>
+      <c r="AN7" s="46">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -4825,80 +5207,115 @@
         <v>174</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3480</v>
       </c>
       <c r="F8" s="1">
-        <f>D8-D13</f>
-        <v>3.5</v>
-      </c>
-      <c r="G8" s="12">
-        <f>F8*F8</f>
-        <v>12.25</v>
-      </c>
-      <c r="H8" s="45">
+        <f t="shared" si="7"/>
+        <v>605520</v>
+      </c>
+      <c r="G8" s="1">
         <f>D8-E12</f>
         <v>2.2647058823529278</v>
       </c>
-      <c r="I8" s="45">
-        <f t="shared" si="4"/>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
         <v>5.1288927335639531</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>30</v>
       </c>
       <c r="L8" s="1">
         <v>50</v>
       </c>
       <c r="M8" s="1">
+        <f>K8-K13</f>
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="1">
+        <f>L8-L13</f>
+        <v>2.8333333333333357</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="15"/>
+        <v>8.027777777777791</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="U8" s="8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>20</v>
+      </c>
+      <c r="W8" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="3"/>
+        <v>298.60000000000002</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="Z8" s="9">
         <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>4</v>
-      </c>
-      <c r="R8" s="1">
-        <v>20</v>
-      </c>
-      <c r="S8" s="1">
-        <v>14.93</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>298.60000000000002</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="V8" s="12">
-        <f t="shared" si="2"/>
         <v>222.9049</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AC8" s="2">
         <v>15.2</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AD8" s="2">
         <v>332</v>
       </c>
-      <c r="AA8" s="6"/>
-      <c r="AD8" s="37">
+      <c r="AE8" s="2">
+        <f t="shared" si="9"/>
+        <v>5046.3999999999996</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="10"/>
+        <v>231.04</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="11"/>
+        <v>110224</v>
+      </c>
+      <c r="AJ8" s="45">
         <v>90</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AK8" s="45">
         <v>14</v>
       </c>
+      <c r="AL8" s="46">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+      <c r="AM8" s="46">
+        <f t="shared" si="13"/>
+        <v>8100</v>
+      </c>
+      <c r="AN8" s="46">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -4909,80 +5326,115 @@
         <v>181</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1267</v>
       </c>
       <c r="F9" s="1">
-        <f>D9-D13</f>
-        <v>10.5</v>
-      </c>
-      <c r="G9" s="12">
-        <f>F9*F9</f>
-        <v>110.25</v>
-      </c>
-      <c r="H9" s="45">
+        <f t="shared" si="7"/>
+        <v>229327</v>
+      </c>
+      <c r="G9" s="1">
         <f>D9-E12</f>
         <v>9.2647058823529278</v>
       </c>
-      <c r="I9" s="45">
-        <f t="shared" si="4"/>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
         <v>85.834775086504948</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>45</v>
       </c>
       <c r="L9" s="1">
         <v>61</v>
       </c>
       <c r="M9" s="1">
+        <f>K9-K13</f>
+        <v>15.5</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>240.25</v>
+      </c>
+      <c r="O9" s="1">
+        <f>L9-L13</f>
+        <v>13.833333333333336</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="15"/>
+        <v>191.36111111111117</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>2745</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="2"/>
+        <v>3721</v>
+      </c>
+      <c r="U9" s="8">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>20</v>
+      </c>
+      <c r="W9" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="Z9" s="9">
         <f t="shared" si="5"/>
-        <v>2745</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="6"/>
-        <v>2025</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="7"/>
-        <v>3721</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>20</v>
-      </c>
-      <c r="S9" s="1">
-        <v>13.95</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="0"/>
-        <v>279</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="V9" s="12">
-        <f t="shared" si="2"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AC9" s="2">
         <v>18.5</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AD9" s="2">
         <v>406</v>
       </c>
-      <c r="AA9" s="6"/>
-      <c r="AD9" s="37">
+      <c r="AE9" s="2">
+        <f t="shared" si="9"/>
+        <v>7511</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="10"/>
+        <v>342.25</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="11"/>
+        <v>164836</v>
+      </c>
+      <c r="AJ9" s="45">
         <v>60</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AK9" s="45">
         <v>8</v>
       </c>
+      <c r="AL9" s="46">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="AM9" s="46">
+        <f t="shared" si="13"/>
+        <v>3600</v>
+      </c>
+      <c r="AN9" s="46">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -4993,644 +5445,874 @@
         <v>188</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1880</v>
       </c>
       <c r="F10" s="1">
-        <f>D10-D13</f>
-        <v>17.5</v>
-      </c>
-      <c r="G10" s="12">
-        <f>F10*F10</f>
-        <v>306.25</v>
-      </c>
-      <c r="H10" s="45">
+        <f t="shared" si="7"/>
+        <v>353440</v>
+      </c>
+      <c r="G10" s="1">
         <f>D10-E12</f>
         <v>16.264705882352928</v>
       </c>
-      <c r="I10" s="45">
-        <f t="shared" si="4"/>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
         <v>264.54065743944591</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>57</v>
       </c>
       <c r="L10" s="1">
         <v>69</v>
       </c>
       <c r="M10" s="1">
+        <f>K10-K13</f>
+        <v>27.5</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>756.25</v>
+      </c>
+      <c r="O10" s="1">
+        <f>L10-L13</f>
+        <v>21.833333333333336</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="15"/>
+        <v>476.69444444444457</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>3933</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="2"/>
+        <v>3249</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="2"/>
+        <v>4761</v>
+      </c>
+      <c r="U10" s="8">
+        <v>6</v>
+      </c>
+      <c r="V10" s="1">
+        <v>21</v>
+      </c>
+      <c r="W10" s="1">
+        <v>17.88</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="3"/>
+        <v>375.47999999999996</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="Z10" s="9">
         <f t="shared" si="5"/>
-        <v>3933</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="6"/>
-        <v>3249</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="7"/>
-        <v>4761</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>6</v>
-      </c>
-      <c r="R10" s="1">
-        <v>21</v>
-      </c>
-      <c r="S10" s="1">
-        <v>17.88</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="0"/>
-        <v>375.47999999999996</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="1"/>
-        <v>441</v>
-      </c>
-      <c r="V10" s="12">
-        <f t="shared" si="2"/>
         <v>319.69439999999997</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AC10" s="2">
         <v>22.1</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AD10" s="2">
         <v>522</v>
       </c>
-      <c r="AA10" s="6"/>
-      <c r="AD10" s="37">
+      <c r="AE10" s="2">
+        <f t="shared" si="9"/>
+        <v>11536.2</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="10"/>
+        <v>488.41000000000008</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="11"/>
+        <v>272484</v>
+      </c>
+      <c r="AJ10" s="45">
         <v>50</v>
       </c>
-      <c r="AE10" s="38">
+      <c r="AK10" s="45">
         <v>9</v>
       </c>
+      <c r="AL10" s="46">
+        <f t="shared" si="12"/>
+        <v>450</v>
+      </c>
+      <c r="AM10" s="46">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="AN10" s="46">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19">
         <f>SUM(C5:C10)</f>
         <v>68</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="19">
         <f>SUM(D5:D10)</f>
         <v>1023</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="20">
         <f>SUM(E5:E10)</f>
         <v>11678</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
-        <f>SUM(G5:G10)</f>
-        <v>857.5</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46">
-        <f>SUM(I5:I10)</f>
+      <c r="F11" s="20">
+        <f>SUM(F5:F10)</f>
+        <v>2011840</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22">
+        <f>SUM(H5:H10)</f>
         <v>866.65570934256061</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="13">
-        <f>SUM(K5:K10)</f>
+      <c r="K11" s="10">
+        <f t="shared" ref="K11:P11" si="16">SUM(K5:K10)</f>
         <v>177</v>
       </c>
-      <c r="L11" s="14">
-        <f>SUM(L5:L10)</f>
+      <c r="L11" s="11">
+        <f t="shared" si="16"/>
         <v>283</v>
       </c>
-      <c r="M11" s="14">
-        <f t="shared" ref="M11:O11" si="8">SUM(M5:M10)</f>
+      <c r="M11" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="16"/>
+        <v>1773.5</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="16"/>
+        <v>1390.8333333333335</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11:S11" si="17">SUM(Q5:Q10)</f>
         <v>9902</v>
       </c>
-      <c r="N11" s="14">
-        <f t="shared" si="8"/>
+      <c r="R11" s="11">
+        <f t="shared" si="17"/>
         <v>6995</v>
       </c>
-      <c r="O11" s="15">
-        <f t="shared" si="8"/>
+      <c r="S11" s="12">
+        <f t="shared" si="17"/>
         <v>14739</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="U11" s="8">
         <v>7</v>
       </c>
-      <c r="R11" s="1">
+      <c r="V11" s="1">
         <v>21</v>
       </c>
-      <c r="S11" s="1">
+      <c r="W11" s="1">
         <v>11.65</v>
       </c>
-      <c r="T11" s="1">
-        <f t="shared" si="0"/>
+      <c r="X11" s="1">
+        <f t="shared" si="3"/>
         <v>244.65</v>
       </c>
-      <c r="U11" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y11" s="1">
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="V11" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z11" s="9">
+        <f t="shared" si="5"/>
         <v>135.7225</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AC11" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AD11" s="2">
         <v>412</v>
       </c>
-      <c r="AA11" s="6"/>
-      <c r="AD11" s="37">
+      <c r="AE11" s="2">
+        <f t="shared" si="9"/>
+        <v>7992.7999999999993</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="10"/>
+        <v>376.35999999999996</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="11"/>
+        <v>169744</v>
+      </c>
+      <c r="AJ11" s="45">
         <v>25</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AK11" s="45">
         <v>2</v>
       </c>
+      <c r="AL11" s="46">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="AM11" s="46">
+        <f t="shared" si="13"/>
+        <v>625</v>
+      </c>
+      <c r="AN11" s="46">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="21" t="s">
+    <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="28">
         <f>E11/C11</f>
         <v>171.73529411764707</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="F12" s="29"/>
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="25">
         <f>COUNT(K5:K10)</f>
         <v>6</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="25">
         <f>COUNT(L5:L10)</f>
         <v>6</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="Q12" s="11">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="U12" s="8">
         <v>8</v>
       </c>
-      <c r="R12" s="1">
+      <c r="V12" s="1">
         <v>22</v>
       </c>
-      <c r="S12" s="1">
+      <c r="W12" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="T12" s="1">
-        <f t="shared" si="0"/>
+      <c r="X12" s="1">
+        <f t="shared" si="3"/>
         <v>393.79999999999995</v>
       </c>
-      <c r="U12" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y12" s="1">
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
-      <c r="V12" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z12" s="9">
+        <f t="shared" si="5"/>
         <v>320.40999999999997</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AC12" s="2">
         <v>25.1</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AD12" s="2">
         <v>614</v>
       </c>
-      <c r="AA12" s="6"/>
-      <c r="AD12" s="37">
+      <c r="AE12" s="2">
+        <f t="shared" si="9"/>
+        <v>15411.400000000001</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="10"/>
+        <v>630.0100000000001</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="11"/>
+        <v>376996</v>
+      </c>
+      <c r="AJ12" s="45">
         <v>40</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AK12" s="45">
         <v>5</v>
       </c>
+      <c r="AL12" s="46">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="AM12" s="46">
+        <f t="shared" si="13"/>
+        <v>1600</v>
+      </c>
+      <c r="AN12" s="46">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>D11/COUNT(D5:D10)</f>
         <v>170.5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <f>AVERAGE(K5:K10)</f>
         <v>29.5</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <f>AVERAGE(L5:L10)</f>
         <v>47.166666666666664</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="Q13" s="11">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="U13" s="8">
         <v>9</v>
       </c>
-      <c r="R13" s="1">
+      <c r="V13" s="1">
         <v>23</v>
       </c>
-      <c r="S13" s="1">
+      <c r="W13" s="1">
         <v>21.5</v>
       </c>
-      <c r="T13" s="1">
-        <f t="shared" si="0"/>
+      <c r="X13" s="1">
+        <f t="shared" si="3"/>
         <v>494.5</v>
       </c>
-      <c r="U13" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y13" s="1">
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
-      <c r="V13" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z13" s="9">
+        <f t="shared" si="5"/>
         <v>462.25</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AC13" s="2">
         <v>23.4</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AD13" s="2">
         <v>544</v>
       </c>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="41" t="s">
+      <c r="AE13" s="2">
+        <f t="shared" si="9"/>
+        <v>12729.599999999999</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="10"/>
+        <v>547.55999999999995</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="11"/>
+        <v>295936</v>
+      </c>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AD13" s="39">
-        <f>SUM(AD5:AD12)</f>
+      <c r="AJ13" s="4">
+        <f>SUM(AJ5:AJ12)</f>
         <v>520</v>
       </c>
-      <c r="AE13" s="40">
-        <f>SUM(AE5:AE12)</f>
+      <c r="AK13" s="4">
+        <f>SUM(AK5:AK12)</f>
         <v>79</v>
       </c>
+      <c r="AL13" s="4">
+        <f t="shared" ref="AL13:AN13" si="18">SUM(AL5:AL12)</f>
+        <v>5965</v>
+      </c>
+      <c r="AM13" s="4">
+        <f t="shared" si="18"/>
+        <v>38450</v>
+      </c>
+      <c r="AN13" s="4">
+        <f t="shared" si="18"/>
+        <v>941</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>1023/6</f>
         <v>170.5</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <f>MEDIAN(K5:K10)</f>
         <v>27</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <f>MEDIAN(L5:L10)</f>
         <v>47.5</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="Q14" s="11">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="U14" s="8">
         <v>10</v>
       </c>
-      <c r="R14" s="1">
+      <c r="V14" s="1">
         <v>24</v>
       </c>
-      <c r="S14" s="1">
+      <c r="W14" s="1">
         <v>13.25</v>
       </c>
-      <c r="T14" s="1">
-        <f t="shared" si="0"/>
+      <c r="X14" s="1">
+        <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="U14" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y14" s="1">
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
-      <c r="V14" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z14" s="9">
+        <f t="shared" si="5"/>
         <v>175.5625</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AC14" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AD14" s="2">
         <v>421</v>
       </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="42" t="s">
+      <c r="AE14" s="2">
+        <f t="shared" si="9"/>
+        <v>7620.1</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="10"/>
+        <v>327.61000000000007</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="11"/>
+        <v>177241</v>
+      </c>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AD14" s="39">
-        <f>AVERAGE(AD5:AD12)</f>
+      <c r="AJ14" s="4">
+        <f>AVERAGE(AJ5:AJ12)</f>
         <v>65</v>
       </c>
-      <c r="AE14" s="40">
-        <f>AVERAGE(AE5:AE12)</f>
+      <c r="AK14" s="4">
+        <f>AVERAGE(AK5:AK12)</f>
         <v>9.875</v>
       </c>
+      <c r="AL14" s="4">
+        <f t="shared" ref="AL14:AN14" si="19">AVERAGE(AL5:AL12)</f>
+        <v>745.625</v>
+      </c>
+      <c r="AM14" s="4">
+        <f t="shared" si="19"/>
+        <v>4806.25</v>
+      </c>
+      <c r="AN14" s="4">
+        <f t="shared" si="19"/>
+        <v>117.625</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J15" s="7" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="7" t="e">
+      <c r="K15" s="4" t="e">
         <f>_xlfn.MODE.MULT(K5:K10)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="7" t="e">
+      <c r="L15" s="4" t="e">
         <f>_xlfn.MODE.SNGL(L5:L10)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="Q15" s="11">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="U15" s="8">
         <v>11</v>
       </c>
-      <c r="R15" s="1">
+      <c r="V15" s="1">
         <v>25</v>
       </c>
-      <c r="S15" s="1">
+      <c r="W15" s="1">
         <v>9.6</v>
       </c>
-      <c r="T15" s="1">
-        <f t="shared" si="0"/>
+      <c r="X15" s="1">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="U15" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y15" s="1">
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="V15" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z15" s="9">
+        <f t="shared" si="5"/>
         <v>92.16</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AC15" s="2">
         <v>22.6</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AD15" s="2">
         <v>445</v>
       </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="42" t="s">
+      <c r="AE15" s="2">
+        <f t="shared" si="9"/>
+        <v>10057</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="10"/>
+        <v>510.76000000000005</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="11"/>
+        <v>198025</v>
+      </c>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="39">
-        <f>MEDIAN(AD5:AD12)</f>
+      <c r="AJ15" s="4">
+        <f>MEDIAN(AJ5:AJ12)</f>
         <v>67.5</v>
       </c>
-      <c r="AE15" s="40">
-        <f>MEDIAN(AE5:AE12)</f>
+      <c r="AK15" s="4">
+        <f>MEDIAN(AK5:AK12)</f>
         <v>10</v>
       </c>
+      <c r="AL15" s="4">
+        <f t="shared" ref="AL15:AN15" si="20">MEDIAN(AL5:AL12)</f>
+        <v>652.5</v>
+      </c>
+      <c r="AM15" s="4">
+        <f t="shared" si="20"/>
+        <v>4612.5</v>
+      </c>
+      <c r="AN15" s="4">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q16" s="11">
+    <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="8">
         <v>12</v>
       </c>
-      <c r="R16" s="1">
+      <c r="V16" s="1">
         <v>17</v>
       </c>
-      <c r="S16" s="1">
+      <c r="W16" s="1">
         <v>13.95</v>
       </c>
-      <c r="T16" s="1">
-        <f t="shared" si="0"/>
+      <c r="X16" s="1">
+        <f t="shared" si="3"/>
         <v>237.14999999999998</v>
       </c>
-      <c r="U16" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y16" s="1">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="V16" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z16" s="9">
+        <f t="shared" si="5"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AC16" s="2">
         <v>17.2</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AD16" s="2">
         <v>408</v>
       </c>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="43" t="s">
+      <c r="AE16" s="2">
+        <f t="shared" si="9"/>
+        <v>7017.5999999999995</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="10"/>
+        <v>295.83999999999997</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="11"/>
+        <v>166464</v>
+      </c>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AD16" s="13" t="e">
-        <f>_xlfn.MODE.MULT(AD5:AD12)</f>
+      <c r="AJ16" s="4" t="e">
+        <f>_xlfn.MODE.MULT(AJ5:AJ12)</f>
         <v>#N/A</v>
       </c>
-      <c r="AE16" s="15">
-        <f>_xlfn.MODE.MULT(AE5:AE12)</f>
+      <c r="AK16" s="4">
+        <f>_xlfn.MODE.MULT(AK5:AK12)</f>
         <v>15</v>
       </c>
+      <c r="AL16" s="4" t="e">
+        <f t="shared" ref="AL16:AN16" si="21">_xlfn.MODE.MULT(AL5:AL12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM16" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN16" s="4">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
     </row>
-    <row r="17" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q17" s="11">
+    <row r="17" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U17" s="8">
         <v>13</v>
       </c>
-      <c r="R17" s="1">
+      <c r="V17" s="1">
         <v>28</v>
       </c>
-      <c r="S17" s="1">
+      <c r="W17" s="1">
         <v>13.07</v>
       </c>
-      <c r="T17" s="1">
-        <f t="shared" si="0"/>
+      <c r="X17" s="1">
+        <f t="shared" si="3"/>
         <v>365.96000000000004</v>
       </c>
-      <c r="U17" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y17" s="1">
+        <f t="shared" si="4"/>
         <v>784</v>
       </c>
-      <c r="V17" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z17" s="9">
+        <f t="shared" si="5"/>
         <v>170.82490000000001</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="AB17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="7">
-        <f>SUM(Y5:Y16)</f>
+      <c r="AC17" s="4">
+        <f>SUM(AC5:AC16)</f>
         <v>224.1</v>
       </c>
-      <c r="Z17" s="7">
-        <f>SUM(Z5:Z16)</f>
+      <c r="AD17" s="4">
+        <f t="shared" ref="AD17:AG17" si="22">SUM(AD5:AD16)</f>
         <v>4829</v>
       </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="22"/>
+        <v>95506.60000000002</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="22"/>
+        <v>4362.05</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="22"/>
+        <v>2118025</v>
+      </c>
     </row>
-    <row r="18" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q18" s="11">
+    <row r="18" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U18" s="8">
         <v>14</v>
       </c>
-      <c r="R18" s="1">
+      <c r="V18" s="1">
         <v>32</v>
       </c>
-      <c r="S18" s="1">
+      <c r="W18" s="1">
         <v>6.6</v>
       </c>
-      <c r="T18" s="1">
-        <f t="shared" si="0"/>
+      <c r="X18" s="1">
+        <f t="shared" si="3"/>
         <v>211.2</v>
       </c>
-      <c r="U18" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y18" s="1">
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
-      <c r="V18" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z18" s="9">
+        <f t="shared" si="5"/>
         <v>43.559999999999995</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="AB18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="7">
-        <f>AVERAGE(Y5:Y16)</f>
+      <c r="AC18" s="4">
+        <f>AVERAGE(AC5:AC16)</f>
         <v>18.675000000000001</v>
       </c>
-      <c r="Z18" s="7">
-        <f>AVERAGE(Z5:Z16)</f>
+      <c r="AD18" s="4">
+        <f t="shared" ref="AD18:AG18" si="23">AVERAGE(AD5:AD16)</f>
         <v>402.41666666666669</v>
       </c>
+      <c r="AE18" s="4">
+        <f t="shared" si="23"/>
+        <v>7958.883333333335</v>
+      </c>
+      <c r="AF18" s="4">
+        <f t="shared" si="23"/>
+        <v>363.50416666666666</v>
+      </c>
+      <c r="AG18" s="4">
+        <f t="shared" si="23"/>
+        <v>176502.08333333334</v>
+      </c>
     </row>
-    <row r="19" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q19" s="11">
+    <row r="19" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U19" s="34">
         <v>15</v>
       </c>
-      <c r="R19" s="1">
+      <c r="V19" s="35">
         <v>33</v>
       </c>
-      <c r="S19" s="1">
+      <c r="W19" s="35">
         <v>9.41</v>
       </c>
-      <c r="T19" s="1">
-        <f t="shared" si="0"/>
+      <c r="X19" s="35">
+        <f t="shared" si="3"/>
         <v>310.53000000000003</v>
       </c>
-      <c r="U19" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y19" s="35">
+        <f t="shared" si="4"/>
         <v>1089</v>
       </c>
-      <c r="V19" s="12">
-        <f t="shared" si="2"/>
+      <c r="Z19" s="36">
+        <f t="shared" si="5"/>
         <v>88.548100000000005</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="AB19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" s="7">
-        <f>MEDIAN(Y5:Y16)</f>
+      <c r="AC19" s="4">
+        <f>MEDIAN(AC5:AC16)</f>
         <v>18.3</v>
       </c>
-      <c r="Z19" s="7">
-        <f>MEDIAN(Z5:Z16)</f>
+      <c r="AD19" s="4">
+        <f>MEDIAN(AD5:AD16)</f>
         <v>410</v>
       </c>
+      <c r="AE19" s="4">
+        <f>MEDIAN(AE5:AE16)</f>
+        <v>7565.55</v>
+      </c>
+      <c r="AF19" s="4">
+        <f>MEDIAN(AF5:AF16)</f>
+        <v>334.93000000000006</v>
+      </c>
+      <c r="AG19" s="4">
+        <f>MEDIAN(AG5:AG16)</f>
+        <v>168104</v>
+      </c>
     </row>
-    <row r="20" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q20" s="11">
+    <row r="20" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U20" s="40">
         <v>16</v>
       </c>
-      <c r="R20" s="1">
+      <c r="V20" s="40">
         <v>34</v>
       </c>
-      <c r="S20" s="1">
+      <c r="W20" s="40">
         <v>5.87</v>
       </c>
-      <c r="T20" s="1">
-        <f t="shared" si="0"/>
+      <c r="X20" s="40">
         <v>199.58</v>
       </c>
-      <c r="U20" s="1">
-        <f t="shared" si="1"/>
+      <c r="Y20" s="40">
         <v>1156</v>
       </c>
-      <c r="V20" s="12">
-        <f t="shared" si="2"/>
-        <v>34.456900000000005</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y20" s="7" t="e">
-        <f>_xlfn.MODE.MULT(Y5:Y16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="7" t="e">
-        <f>_xlfn.MODE.MULT(Z5:Z16)</f>
-        <v>#N/A</v>
+      <c r="Z20" s="40">
+        <v>34.456899999999997</v>
       </c>
     </row>
-    <row r="21" spans="17:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q21" s="16">
+    <row r="21" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U21" s="37">
         <v>17</v>
       </c>
-      <c r="R21" s="4">
+      <c r="V21" s="38">
         <v>35</v>
       </c>
-      <c r="S21" s="4">
+      <c r="W21" s="38">
         <v>6.49</v>
       </c>
-      <c r="T21" s="4">
-        <f t="shared" si="0"/>
+      <c r="X21" s="38">
+        <f t="shared" si="3"/>
         <v>227.15</v>
       </c>
-      <c r="U21" s="4">
-        <f t="shared" si="1"/>
+      <c r="Y21" s="38">
+        <f t="shared" si="4"/>
         <v>1225</v>
       </c>
-      <c r="V21" s="17">
-        <f t="shared" si="2"/>
+      <c r="Z21" s="39">
+        <f t="shared" si="5"/>
         <v>42.120100000000001</v>
       </c>
     </row>
-    <row r="22" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q22" s="18" t="s">
+    <row r="22" spans="21:33" x14ac:dyDescent="0.25">
+      <c r="U22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="19">
-        <f>SUM(R5:R21)</f>
+      <c r="V22" s="4">
+        <f>SUM(V5:V21)</f>
         <v>413</v>
       </c>
-      <c r="S22" s="19">
-        <f>SUM(S5:S21)</f>
+      <c r="W22" s="4">
+        <f>SUM(W5:W21)</f>
         <v>230.54999999999998</v>
       </c>
-      <c r="T22" s="19">
-        <f>SUM(T5:T21)</f>
+      <c r="X22" s="4">
+        <f>SUM(X5:X21)</f>
         <v>5255.8599999999988</v>
       </c>
-      <c r="U22" s="19">
-        <f>SUM(U5:U21)</f>
+      <c r="Y22" s="4">
+        <f>SUM(Y5:Y21)</f>
         <v>10585</v>
       </c>
-      <c r="V22" s="20">
-        <f t="shared" ref="V22" si="9">SUM(V5:V21)</f>
+      <c r="Z22" s="27">
+        <f>SUM(Z5:Z21)</f>
         <v>3552.7205000000004</v>
       </c>
     </row>
-    <row r="23" spans="17:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q23" s="13" t="s">
+    <row r="23" spans="21:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R23" s="14">
-        <f>AVERAGE(R5:R21)</f>
+      <c r="V23" s="11">
+        <f>AVERAGE(V5:V21)</f>
         <v>24.294117647058822</v>
       </c>
-      <c r="S23" s="14">
-        <f t="shared" ref="S23:V23" si="10">AVERAGE(S5:S21)</f>
+      <c r="W23" s="11">
+        <f>AVERAGE(W5:W21)</f>
         <v>13.561764705882352</v>
       </c>
-      <c r="T23" s="14">
-        <f t="shared" si="10"/>
+      <c r="X23" s="11">
+        <f>AVERAGE(X5:X21)</f>
         <v>309.16823529411755</v>
       </c>
-      <c r="U23" s="14">
-        <f t="shared" si="10"/>
+      <c r="Y23" s="11">
+        <f>AVERAGE(Y5:Y21)</f>
         <v>622.64705882352939</v>
       </c>
-      <c r="V23" s="15">
-        <f t="shared" si="10"/>
+      <c r="Z23" s="12">
+        <f>AVERAGE(Z5:Z21)</f>
         <v>208.98355882352942</v>
       </c>
     </row>
@@ -5639,4 +6321,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>